--- a/biology/Botanique/Épilobe_foncé/Épilobe_foncé.xlsx
+++ b/biology/Botanique/Épilobe_foncé/Épilobe_foncé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_fonc%C3%A9</t>
+          <t>Épilobe_foncé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epilobium obscurum, l'épilobe foncé ou épilobe vert foncé, est une plante herbacée de la famille des onagracées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_fonc%C3%A9</t>
+          <t>Épilobe_foncé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,90 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de 30-80 cm., couchée et radicante à la base, glabrescente, à souche émettant des stolons grêles, allongés, portant des paires de feuilles écartées, assez fermes, d'un vert rougeâtre ; tige facilement compressible, penchée au sommet, à 2-4 lignes peu saillantes ; feuilles lancéolées ou ovales-lancéolées, arrondies à la base, faiblement denticulées, souvent luisantes, les moyennes sessiles ; fleurs roses, petites (5-6 mm. de diam.), dressées, en grappes lâches et peu fournies ; pétales dépassant peu le calice ; stigmate entier, en massue ; capsules courtes, les inférieures s'ouvrant longtemps avant les supérieures. l'épilobe sombre pousse dans les tourbières, ruisseaux des terrains siliceux, dans presque toute l'Europe. 
-Caractéristiques
-Sexualité : hermaphrodite
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Épilobe_foncé</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pilobe_fonc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sexualité : hermaphrodite
 Ordre de maturation : homogame
 Pollinisation : autogame
 Fruit : capsule
 Dissémination : anémochore
 Type biologique : hémicryptophyte érigé
-Formation végétale : hémicryptophytale
-Pharmacopée
-Voir l'article : Epilobium parviflorum
+Formation végétale : hémicryptophytale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Épilobe_foncé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pilobe_fonc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir l'article : Epilobium parviflorum
 </t>
         </is>
       </c>
